--- a/data/pca/factorExposure/factorExposure_2017-11-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0253730308872107</v>
+        <v>-0.01209468544882835</v>
       </c>
       <c r="C2">
-        <v>-0.001244725435348325</v>
+        <v>0.03939177720846137</v>
       </c>
       <c r="D2">
-        <v>-0.00320351494631887</v>
+        <v>-0.02847602206368022</v>
       </c>
       <c r="E2">
-        <v>-0.02717656070652044</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02679770403078949</v>
+      </c>
+      <c r="F2">
+        <v>0.03465161206715533</v>
+      </c>
+      <c r="G2">
+        <v>-0.01420957320479216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01201382728205039</v>
+        <v>-0.05607937020624698</v>
       </c>
       <c r="C3">
-        <v>-0.0635768721677151</v>
+        <v>0.08134784523801017</v>
       </c>
       <c r="D3">
-        <v>-0.008049242261551086</v>
+        <v>-0.01392456426855465</v>
       </c>
       <c r="E3">
-        <v>0.01477271820703657</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.07984502018054052</v>
+      </c>
+      <c r="F3">
+        <v>0.05829623224144698</v>
+      </c>
+      <c r="G3">
+        <v>-0.07569452499548919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02352201456595411</v>
+        <v>-0.05515604896533122</v>
       </c>
       <c r="C4">
-        <v>-0.02456630538173223</v>
+        <v>0.06208600373416538</v>
       </c>
       <c r="D4">
-        <v>-0.02959927161138453</v>
+        <v>-0.02188149121213828</v>
       </c>
       <c r="E4">
-        <v>-0.04674133836152866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-7.570940681004746e-05</v>
+      </c>
+      <c r="F4">
+        <v>0.01740721522126338</v>
+      </c>
+      <c r="G4">
+        <v>-0.04107397693338352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01599905358729537</v>
+        <v>-0.03240356102882549</v>
       </c>
       <c r="C6">
-        <v>-0.0420110015538886</v>
+        <v>0.05621403961365744</v>
       </c>
       <c r="D6">
-        <v>-0.02368451203154148</v>
+        <v>-0.0159495477895696</v>
       </c>
       <c r="E6">
-        <v>-0.06847288855897571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.004183129297287097</v>
+      </c>
+      <c r="F6">
+        <v>0.01835501565483109</v>
+      </c>
+      <c r="G6">
+        <v>-0.02267337921955142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01223211057651735</v>
+        <v>-0.01863224295668463</v>
       </c>
       <c r="C7">
-        <v>-0.02392455689048236</v>
+        <v>0.03842938517445645</v>
       </c>
       <c r="D7">
-        <v>-0.07170965123707197</v>
+        <v>-0.0124342241335906</v>
       </c>
       <c r="E7">
-        <v>0.006085582507338268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01417282787397877</v>
+      </c>
+      <c r="F7">
+        <v>0.01054408441523476</v>
+      </c>
+      <c r="G7">
+        <v>-0.07661507675176292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001793343437256757</v>
+        <v>0.00330452046454326</v>
       </c>
       <c r="C8">
-        <v>0.02006494526768206</v>
+        <v>0.01428481093052717</v>
       </c>
       <c r="D8">
-        <v>-0.01473905230909893</v>
+        <v>-0.003813422717179406</v>
       </c>
       <c r="E8">
-        <v>-0.02213967978854108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01644825403584119</v>
+      </c>
+      <c r="F8">
+        <v>0.02353790673164877</v>
+      </c>
+      <c r="G8">
+        <v>-0.02637858789959347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01476476363901528</v>
+        <v>-0.02667164622947805</v>
       </c>
       <c r="C9">
-        <v>-0.02297168179222421</v>
+        <v>0.0425347752310802</v>
       </c>
       <c r="D9">
-        <v>-0.01950174793784586</v>
+        <v>-0.01531669464788123</v>
       </c>
       <c r="E9">
-        <v>-0.03202688833319175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.00318429525573062</v>
+      </c>
+      <c r="F9">
+        <v>0.02008624728680916</v>
+      </c>
+      <c r="G9">
+        <v>-0.03246828340514134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0124891543072223</v>
+        <v>-0.08588059093764715</v>
       </c>
       <c r="C10">
-        <v>-0.1068915146657032</v>
+        <v>-0.1849868551598252</v>
       </c>
       <c r="D10">
-        <v>0.03796311536796496</v>
+        <v>0.01862844080562713</v>
       </c>
       <c r="E10">
-        <v>0.135152253241941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02134277335286801</v>
+      </c>
+      <c r="F10">
+        <v>-0.01390978572401701</v>
+      </c>
+      <c r="G10">
+        <v>-0.03861790482798359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-6.709972438356205e-07</v>
+        <v>-0.03589154133876338</v>
       </c>
       <c r="C11">
-        <v>-0.02311303222398827</v>
+        <v>0.05343347810438237</v>
       </c>
       <c r="D11">
-        <v>-0.007775942372458284</v>
+        <v>-0.001006442928802281</v>
       </c>
       <c r="E11">
-        <v>-0.05071139708765155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.003643320491080826</v>
+      </c>
+      <c r="F11">
+        <v>0.02414586296262012</v>
+      </c>
+      <c r="G11">
+        <v>-0.01308337960161229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005555990734543425</v>
+        <v>-0.03254756008517487</v>
       </c>
       <c r="C12">
-        <v>-0.02486826094941467</v>
+        <v>0.04429791293400569</v>
       </c>
       <c r="D12">
-        <v>-0.0126508393955779</v>
+        <v>-0.005278557756259575</v>
       </c>
       <c r="E12">
-        <v>-0.04348852769825595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.009770221679103021</v>
+      </c>
+      <c r="F12">
+        <v>0.007608752223798686</v>
+      </c>
+      <c r="G12">
+        <v>-0.01766616692009416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02132655746863887</v>
+        <v>-0.0104647789378179</v>
       </c>
       <c r="C13">
-        <v>-0.01625289603714993</v>
+        <v>0.03534299799064293</v>
       </c>
       <c r="D13">
-        <v>-0.003162127685174482</v>
+        <v>-0.02463379973858376</v>
       </c>
       <c r="E13">
-        <v>-0.02367911770534635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02069153345794676</v>
+      </c>
+      <c r="F13">
+        <v>0.02460362844636896</v>
+      </c>
+      <c r="G13">
+        <v>-0.02795520463908296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007685861756064817</v>
+        <v>-0.008075407765180462</v>
       </c>
       <c r="C14">
-        <v>-0.011868167678754</v>
+        <v>0.02515481490796708</v>
       </c>
       <c r="D14">
-        <v>-0.01811339478284555</v>
+        <v>-0.00829623763875917</v>
       </c>
       <c r="E14">
-        <v>-0.009468692749947345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.005175715913601041</v>
+      </c>
+      <c r="F14">
+        <v>0.00330458474174582</v>
+      </c>
+      <c r="G14">
+        <v>-0.03633222106740242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0008798892931743923</v>
+        <v>-0.03212295272588703</v>
       </c>
       <c r="C16">
-        <v>-0.02205361080302937</v>
+        <v>0.04396372317099177</v>
       </c>
       <c r="D16">
-        <v>-0.01431981698753783</v>
+        <v>-0.0006691788069356378</v>
       </c>
       <c r="E16">
-        <v>-0.04893049261802628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.001410848908078929</v>
+      </c>
+      <c r="F16">
+        <v>0.01019866365485368</v>
+      </c>
+      <c r="G16">
+        <v>-0.01660896020677951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01230517536908705</v>
+        <v>-0.03068124199121626</v>
       </c>
       <c r="C19">
-        <v>-0.01912899548908215</v>
+        <v>0.05639980472165873</v>
       </c>
       <c r="D19">
-        <v>-0.01440049627488195</v>
+        <v>-0.01508209095644485</v>
       </c>
       <c r="E19">
-        <v>-0.04793469627436619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.03895536119804066</v>
+      </c>
+      <c r="F19">
+        <v>0.03850783256897276</v>
+      </c>
+      <c r="G19">
+        <v>-0.03602693398661846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.008876959325818685</v>
+        <v>-0.01001276174278776</v>
       </c>
       <c r="C20">
-        <v>-0.00430726936034531</v>
+        <v>0.03550184587286283</v>
       </c>
       <c r="D20">
-        <v>-0.005677251918452835</v>
+        <v>-0.01298570026090233</v>
       </c>
       <c r="E20">
-        <v>-0.004240054658708266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.01944627417977003</v>
+      </c>
+      <c r="F20">
+        <v>0.007308362555454017</v>
+      </c>
+      <c r="G20">
+        <v>-0.02887529396241782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01573870023058164</v>
+        <v>-0.01261474013219265</v>
       </c>
       <c r="C21">
-        <v>-0.03678836754304048</v>
+        <v>0.03443328293390671</v>
       </c>
       <c r="D21">
-        <v>-0.02860358740180343</v>
+        <v>-0.01586159451388274</v>
       </c>
       <c r="E21">
-        <v>-0.02354722901333754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02701451663428762</v>
+      </c>
+      <c r="F21">
+        <v>0.02083449712130818</v>
+      </c>
+      <c r="G21">
+        <v>-0.05079288605856978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004261635396483479</v>
+        <v>-0.02656060400504464</v>
       </c>
       <c r="C24">
-        <v>-0.02071811333057444</v>
+        <v>0.04682225377177767</v>
       </c>
       <c r="D24">
-        <v>-0.0114318877804096</v>
+        <v>-0.006090117491437744</v>
       </c>
       <c r="E24">
-        <v>-0.04322018796746341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.007317394809525346</v>
+      </c>
+      <c r="F24">
+        <v>0.01995831845811677</v>
+      </c>
+      <c r="G24">
+        <v>-0.01591619002872952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01079204401625382</v>
+        <v>-0.04315049993960543</v>
       </c>
       <c r="C25">
-        <v>-0.03190073994524356</v>
+        <v>0.0529510910315155</v>
       </c>
       <c r="D25">
-        <v>-0.009959892354121638</v>
+        <v>-0.009872967195679604</v>
       </c>
       <c r="E25">
-        <v>-0.04528682444355242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01401530850315002</v>
+      </c>
+      <c r="F25">
+        <v>0.01423352121890146</v>
+      </c>
+      <c r="G25">
+        <v>-0.02276902533040662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02377059161048516</v>
+        <v>-0.006770626932083334</v>
       </c>
       <c r="C26">
-        <v>-0.002168454498194749</v>
+        <v>0.008620254394647281</v>
       </c>
       <c r="D26">
-        <v>-0.009610536037191482</v>
+        <v>-0.02385185811957366</v>
       </c>
       <c r="E26">
-        <v>-0.0001263858295693183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.008575432000724253</v>
+      </c>
+      <c r="F26">
+        <v>0.007550465881392911</v>
+      </c>
+      <c r="G26">
+        <v>-0.02722868051585204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02698792880997575</v>
+        <v>-0.1094760790671145</v>
       </c>
       <c r="C28">
-        <v>-0.1584567807940213</v>
+        <v>-0.2262985302401176</v>
       </c>
       <c r="D28">
-        <v>0.05927284323048186</v>
+        <v>0.01012123514931191</v>
       </c>
       <c r="E28">
-        <v>0.2109829337287246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.008884129011870341</v>
+      </c>
+      <c r="F28">
+        <v>-0.008130949737436688</v>
+      </c>
+      <c r="G28">
+        <v>-0.05319817911015835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007632664529906585</v>
+        <v>-0.01246530235720119</v>
       </c>
       <c r="C29">
-        <v>-0.01539497634938767</v>
+        <v>0.01946306654943698</v>
       </c>
       <c r="D29">
-        <v>-0.01322672676837867</v>
+        <v>-0.007105465948631232</v>
       </c>
       <c r="E29">
-        <v>-0.008399999222626017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.003002301285763624</v>
+      </c>
+      <c r="F29">
+        <v>-0.005793476454626528</v>
+      </c>
+      <c r="G29">
+        <v>-0.03068043516363857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02653914683588546</v>
+        <v>-0.03940490547655254</v>
       </c>
       <c r="C30">
-        <v>-0.02859721366944843</v>
+        <v>0.07182697143978595</v>
       </c>
       <c r="D30">
-        <v>0.03026749039686265</v>
+        <v>-0.02662469571179533</v>
       </c>
       <c r="E30">
-        <v>-0.09184520397454075</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.01851589533922611</v>
+      </c>
+      <c r="F30">
+        <v>0.04620674051600296</v>
+      </c>
+      <c r="G30">
+        <v>0.005661093908445122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006616496455551272</v>
+        <v>-0.04276295131890535</v>
       </c>
       <c r="C31">
-        <v>-0.04447416015742427</v>
+        <v>0.0313259408402348</v>
       </c>
       <c r="D31">
-        <v>-0.02065370851805482</v>
+        <v>-0.002949212320325447</v>
       </c>
       <c r="E31">
-        <v>-0.02774968318208343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0120902437212042</v>
+      </c>
+      <c r="F31">
+        <v>-0.03563190345093183</v>
+      </c>
+      <c r="G31">
+        <v>-0.02595410323284288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.008719559472247033</v>
+        <v>-0.002738337636705019</v>
       </c>
       <c r="C32">
-        <v>0.001225870768519824</v>
+        <v>0.03526168151879498</v>
       </c>
       <c r="D32">
-        <v>-0.03180897751499833</v>
+        <v>0.004698744226912676</v>
       </c>
       <c r="E32">
-        <v>-0.02247445669237284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01223800604776482</v>
+      </c>
+      <c r="F32">
+        <v>0.07719969181943577</v>
+      </c>
+      <c r="G32">
+        <v>-0.05341733113557948</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01246444155893054</v>
+        <v>-0.02908979588497114</v>
       </c>
       <c r="C33">
-        <v>-0.02810013392456372</v>
+        <v>0.05141961882533856</v>
       </c>
       <c r="D33">
-        <v>0.009933570273110993</v>
+        <v>-0.01374041531095254</v>
       </c>
       <c r="E33">
-        <v>-0.0441689203084238</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01709550802738087</v>
+      </c>
+      <c r="F33">
+        <v>0.02622028739472212</v>
+      </c>
+      <c r="G33">
+        <v>-0.02253337362143189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.006785579492917668</v>
+        <v>-0.04690149340335157</v>
       </c>
       <c r="C34">
-        <v>-0.02558725528302586</v>
+        <v>0.05415583076275551</v>
       </c>
       <c r="D34">
-        <v>-0.02137119607952845</v>
+        <v>0.00635119581598334</v>
       </c>
       <c r="E34">
-        <v>-0.04492867736714933</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01338930299655992</v>
+      </c>
+      <c r="F34">
+        <v>0.0215135920939478</v>
+      </c>
+      <c r="G34">
+        <v>-0.0264458235174967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0117455802388296</v>
+        <v>-0.01098242960384347</v>
       </c>
       <c r="C36">
-        <v>-0.0171198504682976</v>
+        <v>0.006205083899955958</v>
       </c>
       <c r="D36">
-        <v>-0.005491483186683467</v>
+        <v>-0.01103572617660236</v>
       </c>
       <c r="E36">
-        <v>-0.004704468668741175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001368387476201885</v>
+      </c>
+      <c r="F36">
+        <v>7.67097106478031e-05</v>
+      </c>
+      <c r="G36">
+        <v>-0.01867844759301981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.004610725156062538</v>
+        <v>-0.03379062705913292</v>
       </c>
       <c r="C38">
-        <v>-0.0241814360783118</v>
+        <v>0.02279179986761328</v>
       </c>
       <c r="D38">
-        <v>-0.006572492822358175</v>
+        <v>0.008352566785866941</v>
       </c>
       <c r="E38">
-        <v>-0.02585031232585253</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003098275047221916</v>
+      </c>
+      <c r="F38">
+        <v>0.003033504504840125</v>
+      </c>
+      <c r="G38">
+        <v>-0.02905000190219145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005118033001814928</v>
+        <v>-0.03160632474154812</v>
       </c>
       <c r="C39">
-        <v>-0.008315815579023625</v>
+        <v>0.08385770605884936</v>
       </c>
       <c r="D39">
-        <v>-0.02322053049237899</v>
+        <v>-0.01133052770746522</v>
       </c>
       <c r="E39">
-        <v>-0.07088931551560551</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.008311876017054666</v>
+      </c>
+      <c r="F39">
+        <v>0.03959272620367427</v>
+      </c>
+      <c r="G39">
+        <v>-0.01827172151885493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01220654802915811</v>
+        <v>-0.01934642259081716</v>
       </c>
       <c r="C40">
-        <v>-0.02043221872695159</v>
+        <v>0.03207569748561564</v>
       </c>
       <c r="D40">
-        <v>-0.007528259668725489</v>
+        <v>-0.01277863786074727</v>
       </c>
       <c r="E40">
-        <v>-0.04768412490710669</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01445210628151255</v>
+      </c>
+      <c r="F40">
+        <v>0.0228448983377337</v>
+      </c>
+      <c r="G40">
+        <v>-0.01959679647765696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005536188944355061</v>
+        <v>-0.01271384169751673</v>
       </c>
       <c r="C41">
-        <v>-0.01645218974513675</v>
+        <v>-0.001954354319656954</v>
       </c>
       <c r="D41">
-        <v>0.0009704034008378052</v>
+        <v>-0.003318932314843429</v>
       </c>
       <c r="E41">
-        <v>0.004220959891190337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003213898186903653</v>
+      </c>
+      <c r="F41">
+        <v>0.001008528141383124</v>
+      </c>
+      <c r="G41">
+        <v>-0.01263310534633598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08856759811524867</v>
+        <v>-0.03569668458729341</v>
       </c>
       <c r="C42">
-        <v>-0.106932290558344</v>
+        <v>0.05563209311763806</v>
       </c>
       <c r="D42">
-        <v>0.07253910927480756</v>
+        <v>-0.1018577633889473</v>
       </c>
       <c r="E42">
-        <v>-0.1755737186281418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.0616937518629335</v>
+      </c>
+      <c r="F42">
+        <v>-0.1141602232934877</v>
+      </c>
+      <c r="G42">
+        <v>0.2082956734065848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.008768446250152693</v>
+        <v>-0.02771955767255533</v>
       </c>
       <c r="C43">
-        <v>-0.01684477034663188</v>
+        <v>0.007220012326377759</v>
       </c>
       <c r="D43">
-        <v>0.0006308119623456644</v>
+        <v>-0.003475511401899937</v>
       </c>
       <c r="E43">
-        <v>-2.788594340946458e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.000280747300813683</v>
+      </c>
+      <c r="F43">
+        <v>0.001635969134334189</v>
+      </c>
+      <c r="G43">
+        <v>-0.01658348184133598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003628739814765416</v>
+        <v>-0.01666719956122936</v>
       </c>
       <c r="C44">
-        <v>-0.003113470705118549</v>
+        <v>0.04876602165209418</v>
       </c>
       <c r="D44">
-        <v>-0.01765606661505803</v>
+        <v>-0.006305442950365299</v>
       </c>
       <c r="E44">
-        <v>-0.01951624793286454</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01721690370233298</v>
+      </c>
+      <c r="F44">
+        <v>0.02592380524378672</v>
+      </c>
+      <c r="G44">
+        <v>-0.03395853670143549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0110815198543136</v>
+        <v>-0.002542549224970124</v>
       </c>
       <c r="C46">
-        <v>-0.0051333954165389</v>
+        <v>0.01724349683343309</v>
       </c>
       <c r="D46">
-        <v>-0.009859843635908781</v>
+        <v>-0.01155595229107013</v>
       </c>
       <c r="E46">
-        <v>-0.02541804552073058</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.003370594849179111</v>
+      </c>
+      <c r="F46">
+        <v>-0.007771885061110134</v>
+      </c>
+      <c r="G46">
+        <v>-0.02232289326644057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.002015340555234319</v>
+        <v>-0.07188917713059707</v>
       </c>
       <c r="C47">
-        <v>-0.06497537168734505</v>
+        <v>0.06235269356862364</v>
       </c>
       <c r="D47">
-        <v>-0.008964148237204745</v>
+        <v>0.005255920970864639</v>
       </c>
       <c r="E47">
-        <v>-0.04220472812657713</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01447589306143147</v>
+      </c>
+      <c r="F47">
+        <v>-0.06030492988049223</v>
+      </c>
+      <c r="G47">
+        <v>-0.02155658924538069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002430866184829249</v>
+        <v>-0.01846205591109794</v>
       </c>
       <c r="C48">
-        <v>-0.02878654190059576</v>
+        <v>0.01027898822098487</v>
       </c>
       <c r="D48">
-        <v>-0.007124087845494513</v>
+        <v>-0.000879025728578054</v>
       </c>
       <c r="E48">
-        <v>-0.01126412300976623</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003108829366957681</v>
+      </c>
+      <c r="F48">
+        <v>-0.01340487129699424</v>
+      </c>
+      <c r="G48">
+        <v>-0.02501979424840274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.00427911577431083</v>
+        <v>-0.07651813536495763</v>
       </c>
       <c r="C50">
-        <v>-0.0629918910628096</v>
+        <v>0.0633039047410832</v>
       </c>
       <c r="D50">
-        <v>-0.03852238474743835</v>
+        <v>0.004100527648569559</v>
       </c>
       <c r="E50">
-        <v>-0.04794171941615684</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01345130332429511</v>
+      </c>
+      <c r="F50">
+        <v>-0.05437225087274579</v>
+      </c>
+      <c r="G50">
+        <v>-0.04319256884245913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007479237688345185</v>
+        <v>-0.01355711461818631</v>
       </c>
       <c r="C51">
-        <v>-0.00906617771399728</v>
+        <v>0.02785495386499144</v>
       </c>
       <c r="D51">
-        <v>-0.01269333510340996</v>
+        <v>-0.008631722741292537</v>
       </c>
       <c r="E51">
-        <v>0.01095984258841568</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.004597578650751719</v>
+      </c>
+      <c r="F51">
+        <v>0.03202396952096138</v>
+      </c>
+      <c r="G51">
+        <v>-0.04543698092560512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.004767157498430314</v>
+        <v>-0.09641340452648564</v>
       </c>
       <c r="C53">
-        <v>-0.08227499992948167</v>
+        <v>0.07455086122752029</v>
       </c>
       <c r="D53">
-        <v>-0.03048304706633616</v>
+        <v>0.006504522630460327</v>
       </c>
       <c r="E53">
-        <v>-0.07390747542373884</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04060025129768968</v>
+      </c>
+      <c r="F53">
+        <v>-0.06685182736876573</v>
+      </c>
+      <c r="G53">
+        <v>-0.02270307030790838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001141598981504349</v>
+        <v>-0.02886011153048143</v>
       </c>
       <c r="C54">
-        <v>-0.03168153261026475</v>
+        <v>0.004690439003917523</v>
       </c>
       <c r="D54">
-        <v>-0.009238471565071528</v>
+        <v>0.004309366623621581</v>
       </c>
       <c r="E54">
-        <v>-0.002391858530466912</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002556304158916211</v>
+      </c>
+      <c r="F54">
+        <v>-0.001881770557242862</v>
+      </c>
+      <c r="G54">
+        <v>-0.02955412727034446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0003459853950243981</v>
+        <v>-0.072626234251112</v>
       </c>
       <c r="C55">
-        <v>-0.06464788408298883</v>
+        <v>0.07014694632917673</v>
       </c>
       <c r="D55">
-        <v>-0.02034527431174385</v>
+        <v>0.005176873144645221</v>
       </c>
       <c r="E55">
-        <v>-0.08134721189570497</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02724165513367786</v>
+      </c>
+      <c r="F55">
+        <v>-0.0627155017446822</v>
+      </c>
+      <c r="G55">
+        <v>-0.01074558127656582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.002380814838881049</v>
+        <v>-0.1475494757476683</v>
       </c>
       <c r="C56">
-        <v>-0.1233418789404529</v>
+        <v>0.09759849017376585</v>
       </c>
       <c r="D56">
-        <v>-0.02341296446948717</v>
+        <v>0.01544710200757308</v>
       </c>
       <c r="E56">
-        <v>-0.09759595270700645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04448333417786449</v>
+      </c>
+      <c r="F56">
+        <v>-0.1061188926600823</v>
+      </c>
+      <c r="G56">
+        <v>-0.0002805833417393293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02397601412474449</v>
+        <v>-0.01311395253719194</v>
       </c>
       <c r="C57">
-        <v>-0.03168412816045962</v>
+        <v>0.01197350161817197</v>
       </c>
       <c r="D57">
-        <v>-0.003238409207271769</v>
+        <v>-0.02357746434882768</v>
       </c>
       <c r="E57">
-        <v>-0.03263477732868149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02802151084243301</v>
+      </c>
+      <c r="F57">
+        <v>0.01557425821351726</v>
+      </c>
+      <c r="G57">
+        <v>-0.02260518228091077</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01109807556535162</v>
+        <v>-0.0709002037675094</v>
       </c>
       <c r="C58">
-        <v>-0.1289618275374634</v>
+        <v>0.07734413811192696</v>
       </c>
       <c r="D58">
-        <v>0.09625834029567147</v>
+        <v>-0.02047496192993754</v>
       </c>
       <c r="E58">
-        <v>-0.1572211088582972</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.945472853507407</v>
+      </c>
+      <c r="F58">
+        <v>-0.2219970081103772</v>
+      </c>
+      <c r="G58">
+        <v>-0.06332560621083626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02923611627224706</v>
+        <v>-0.1485267229162546</v>
       </c>
       <c r="C59">
-        <v>-0.1602063511915135</v>
+        <v>-0.2167615772875476</v>
       </c>
       <c r="D59">
-        <v>0.07964375065751608</v>
+        <v>0.0172875593044569</v>
       </c>
       <c r="E59">
-        <v>0.1776812446432227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01720012132292438</v>
+      </c>
+      <c r="F59">
+        <v>0.01023197260239851</v>
+      </c>
+      <c r="G59">
+        <v>-0.01729776093882988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03441823977838778</v>
+        <v>-0.2970566662879531</v>
       </c>
       <c r="C60">
-        <v>-0.2027431768519551</v>
+        <v>0.0814155742270098</v>
       </c>
       <c r="D60">
-        <v>0.03647246385997671</v>
+        <v>-0.005950684934300621</v>
       </c>
       <c r="E60">
-        <v>-0.07133688548442442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02081201444440563</v>
+      </c>
+      <c r="F60">
+        <v>0.3810298439963621</v>
+      </c>
+      <c r="G60">
+        <v>0.06876677144386041</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00183544121071647</v>
+        <v>-0.03254918684673794</v>
       </c>
       <c r="C61">
-        <v>-0.02488082049916537</v>
+        <v>0.06378876160100347</v>
       </c>
       <c r="D61">
-        <v>-0.0150776468360438</v>
+        <v>-0.004698769187828552</v>
       </c>
       <c r="E61">
-        <v>-0.06469273644479338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.004622248582525045</v>
+      </c>
+      <c r="F61">
+        <v>0.02495959419808009</v>
+      </c>
+      <c r="G61">
+        <v>-0.01931392826072766</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007658101796646156</v>
+        <v>-0.01492256672178705</v>
       </c>
       <c r="C63">
-        <v>-0.01512938480292613</v>
+        <v>0.02612569612516121</v>
       </c>
       <c r="D63">
-        <v>-0.01120953232096838</v>
+        <v>-0.007546859044833849</v>
       </c>
       <c r="E63">
-        <v>-0.02205032426051229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01328113292165727</v>
+      </c>
+      <c r="F63">
+        <v>-0.0110517639628176</v>
+      </c>
+      <c r="G63">
+        <v>-0.02810751159189833</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.005295708920192764</v>
+        <v>-0.04613659020995079</v>
       </c>
       <c r="C64">
-        <v>-0.03905008054795575</v>
+        <v>0.03520914934145947</v>
       </c>
       <c r="D64">
-        <v>-0.01136883085877163</v>
+        <v>-0.004401929887118308</v>
       </c>
       <c r="E64">
-        <v>-0.04979793852172484</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.01005760326124108</v>
+      </c>
+      <c r="F64">
+        <v>0.01408049448437181</v>
+      </c>
+      <c r="G64">
+        <v>-0.0175764196207369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01879283539371505</v>
+        <v>-0.08133424688962725</v>
       </c>
       <c r="C65">
-        <v>-0.04999540516164021</v>
+        <v>0.06680132367493703</v>
       </c>
       <c r="D65">
-        <v>-0.02431806196188978</v>
+        <v>-0.0146967731419718</v>
       </c>
       <c r="E65">
-        <v>-0.07421641937012702</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.003492709442674418</v>
+      </c>
+      <c r="F65">
+        <v>0.04042090366594363</v>
+      </c>
+      <c r="G65">
+        <v>-0.01035494856991399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.006414912499162653</v>
+        <v>-0.05428950422891416</v>
       </c>
       <c r="C66">
-        <v>-0.02656373800124981</v>
+        <v>0.116658581488641</v>
       </c>
       <c r="D66">
-        <v>-0.01111712980015479</v>
+        <v>-0.01028960388290976</v>
       </c>
       <c r="E66">
-        <v>-0.09984489395177799</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.009922083066800036</v>
+      </c>
+      <c r="F66">
+        <v>0.04693330335215638</v>
+      </c>
+      <c r="G66">
+        <v>-0.008132012190769556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0008043723690600915</v>
+        <v>-0.05876200347325942</v>
       </c>
       <c r="C67">
-        <v>-0.04211413387198716</v>
+        <v>0.02563178694630723</v>
       </c>
       <c r="D67">
-        <v>-0.00456644139394392</v>
+        <v>0.00714120765095215</v>
       </c>
       <c r="E67">
-        <v>-0.02883428670791344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003812570386411341</v>
+      </c>
+      <c r="F67">
+        <v>0.001083073285279113</v>
+      </c>
+      <c r="G67">
+        <v>-0.02896282431023615</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04372417530867086</v>
+        <v>-0.1268395440377133</v>
       </c>
       <c r="C68">
-        <v>-0.1464418541953546</v>
+        <v>-0.2711880573769664</v>
       </c>
       <c r="D68">
-        <v>0.07415840204619202</v>
+        <v>-0.001392102695303129</v>
       </c>
       <c r="E68">
-        <v>0.1939323364489716</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.02077356399302937</v>
+      </c>
+      <c r="F68">
+        <v>-0.01298548436695059</v>
+      </c>
+      <c r="G68">
+        <v>-0.0205845080225009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.002025049420549798</v>
+        <v>-0.07613505669914489</v>
       </c>
       <c r="C69">
-        <v>-0.05499685894797872</v>
+        <v>0.06003341196935813</v>
       </c>
       <c r="D69">
-        <v>-0.01177914344455898</v>
+        <v>0.009598252188600411</v>
       </c>
       <c r="E69">
-        <v>-0.0457678465594643</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02979253864846486</v>
+      </c>
+      <c r="F69">
+        <v>-0.03958840888510524</v>
+      </c>
+      <c r="G69">
+        <v>-0.01860362116506254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.0310638299985586</v>
+        <v>-0.1256763951088019</v>
       </c>
       <c r="C71">
-        <v>-0.1329431540599375</v>
+        <v>-0.2287502597007751</v>
       </c>
       <c r="D71">
-        <v>0.05540996068909208</v>
+        <v>0.007664386033643598</v>
       </c>
       <c r="E71">
-        <v>0.1837390178432953</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02684551286045343</v>
+      </c>
+      <c r="F71">
+        <v>-0.01839474932058612</v>
+      </c>
+      <c r="G71">
+        <v>-0.03685802155300484</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002191888746399643</v>
+        <v>-0.08614382822502184</v>
       </c>
       <c r="C72">
-        <v>-0.1104516841481446</v>
+        <v>0.07925908909852405</v>
       </c>
       <c r="D72">
-        <v>-0.02069285856327046</v>
+        <v>0.009413832236464357</v>
       </c>
       <c r="E72">
-        <v>-0.1570296231276944</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01381785857439212</v>
+      </c>
+      <c r="F72">
+        <v>0.03668127354519498</v>
+      </c>
+      <c r="G72">
+        <v>0.00506486510194183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04470819964867027</v>
+        <v>-0.4103292095532147</v>
       </c>
       <c r="C73">
-        <v>-0.2328094308887257</v>
+        <v>0.09892003059141899</v>
       </c>
       <c r="D73">
-        <v>0.07445257964650258</v>
+        <v>-0.009195426557011402</v>
       </c>
       <c r="E73">
-        <v>-0.1439183872658444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06242717325532877</v>
+      </c>
+      <c r="F73">
+        <v>0.5316112243094002</v>
+      </c>
+      <c r="G73">
+        <v>0.1309826598255158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.00113098200440366</v>
+        <v>-0.1179595104765717</v>
       </c>
       <c r="C74">
-        <v>-0.1155762281652373</v>
+        <v>0.1130569211920071</v>
       </c>
       <c r="D74">
-        <v>-0.01573276343196821</v>
+        <v>0.01158631242062994</v>
       </c>
       <c r="E74">
-        <v>-0.1057052166408607</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03766562949361051</v>
+      </c>
+      <c r="F74">
+        <v>-0.07293069623572092</v>
+      </c>
+      <c r="G74">
+        <v>-0.01895350548968441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.003751171533309926</v>
+        <v>-0.2636862253066874</v>
       </c>
       <c r="C75">
-        <v>-0.2294555212691876</v>
+        <v>0.1391212004106305</v>
       </c>
       <c r="D75">
-        <v>-0.01975938743695661</v>
+        <v>0.03342633076532062</v>
       </c>
       <c r="E75">
-        <v>-0.1691481657808764</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07526956172645391</v>
+      </c>
+      <c r="F75">
+        <v>-0.219803371831385</v>
+      </c>
+      <c r="G75">
+        <v>0.02800507524464229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.003811001705887735</v>
+        <v>-0.1410420265936793</v>
       </c>
       <c r="C76">
-        <v>-0.2076225943158088</v>
+        <v>0.1182718016247651</v>
       </c>
       <c r="D76">
-        <v>-0.04327580909688981</v>
+        <v>0.02337831675061594</v>
       </c>
       <c r="E76">
-        <v>-0.1698182119485022</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07054803724395529</v>
+      </c>
+      <c r="F76">
+        <v>-0.1408849114736515</v>
+      </c>
+      <c r="G76">
+        <v>-0.00573948346212133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01379311587217964</v>
+        <v>-0.06267533930025271</v>
       </c>
       <c r="C77">
-        <v>-0.02781149976237567</v>
+        <v>0.06215524191201113</v>
       </c>
       <c r="D77">
-        <v>-0.01600731867051217</v>
+        <v>-0.01163860426967373</v>
       </c>
       <c r="E77">
-        <v>-0.0630787464017482</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03983913485886047</v>
+      </c>
+      <c r="F77">
+        <v>0.01940663297278575</v>
+      </c>
+      <c r="G77">
+        <v>-0.04333808274558104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.006592599051554919</v>
+        <v>-0.04115103223369178</v>
       </c>
       <c r="C78">
-        <v>-0.02293531212674188</v>
+        <v>0.05160543246267126</v>
       </c>
       <c r="D78">
-        <v>-0.01757032644839695</v>
+        <v>-0.00490790676391974</v>
       </c>
       <c r="E78">
-        <v>-0.05270593559879484</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01560996629136135</v>
+      </c>
+      <c r="F78">
+        <v>0.04201530599003345</v>
+      </c>
+      <c r="G78">
+        <v>-0.03068068447511183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01459806544599991</v>
+        <v>-0.06428597595413101</v>
       </c>
       <c r="C80">
-        <v>-0.2026966780498615</v>
+        <v>0.0726067057975141</v>
       </c>
       <c r="D80">
-        <v>-0.9239856876975052</v>
+        <v>-0.01249034799860024</v>
       </c>
       <c r="E80">
-        <v>0.2334871651396231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0758278149635792</v>
+      </c>
+      <c r="F80">
+        <v>0.03434116839064591</v>
+      </c>
+      <c r="G80">
+        <v>-0.9161318626309991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.003237233797257256</v>
+        <v>-0.1464112586018222</v>
       </c>
       <c r="C81">
-        <v>-0.1710118969403678</v>
+        <v>0.09061100402093054</v>
       </c>
       <c r="D81">
-        <v>-0.0283593013979191</v>
+        <v>0.01721482257956303</v>
       </c>
       <c r="E81">
-        <v>-0.1255419342625003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04637189495382729</v>
+      </c>
+      <c r="F81">
+        <v>-0.1399107293859576</v>
+      </c>
+      <c r="G81">
+        <v>-0.01181341104068396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.04397415431365669</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03409545830708124</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002408815267011618</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01861013602779113</v>
+      </c>
+      <c r="F82">
+        <v>-0.0002066054729212717</v>
+      </c>
+      <c r="G82">
+        <v>0.00583013845134505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.005562555195398551</v>
+        <v>-0.03047568662431048</v>
       </c>
       <c r="C83">
-        <v>-0.03253588151495741</v>
+        <v>0.01964930444780018</v>
       </c>
       <c r="D83">
-        <v>-0.001354173636198406</v>
+        <v>-0.004782412469031549</v>
       </c>
       <c r="E83">
-        <v>-0.02014988373299647</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0256069752438671</v>
+      </c>
+      <c r="F83">
+        <v>0.02341546784330517</v>
+      </c>
+      <c r="G83">
+        <v>-0.0269233021896897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01117274766661967</v>
+        <v>-0.2422389223134241</v>
       </c>
       <c r="C85">
-        <v>-0.2064708512225415</v>
+        <v>0.1436642411288304</v>
       </c>
       <c r="D85">
-        <v>-0.0192834571973086</v>
+        <v>0.02227766723433084</v>
       </c>
       <c r="E85">
-        <v>-0.2024692393063269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1190888441305409</v>
+      </c>
+      <c r="F85">
+        <v>-0.2092067346311312</v>
+      </c>
+      <c r="G85">
+        <v>0.05333636815096829</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009944361040166081</v>
+        <v>-0.009422070750765984</v>
       </c>
       <c r="C86">
-        <v>-0.006844518290668853</v>
+        <v>0.02383035964843469</v>
       </c>
       <c r="D86">
-        <v>-0.0135254025783381</v>
+        <v>-0.009547182351008385</v>
       </c>
       <c r="E86">
-        <v>-0.02825353433693985</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02210167366214984</v>
+      </c>
+      <c r="F86">
+        <v>0.02160663798245795</v>
+      </c>
+      <c r="G86">
+        <v>-0.05431107991374904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007523398990121557</v>
+        <v>-0.01619187746923323</v>
       </c>
       <c r="C87">
-        <v>-0.01942320746031539</v>
+        <v>0.02752368698689531</v>
       </c>
       <c r="D87">
-        <v>-0.01297012355461501</v>
+        <v>-0.01121780484932275</v>
       </c>
       <c r="E87">
-        <v>-0.03789033464356524</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07731734505787209</v>
+      </c>
+      <c r="F87">
+        <v>0.0611618075487732</v>
+      </c>
+      <c r="G87">
+        <v>-0.040404714863114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.006174157106031775</v>
+        <v>-0.0897260264120754</v>
       </c>
       <c r="C88">
-        <v>-0.0553852842638731</v>
+        <v>0.05195778505191266</v>
       </c>
       <c r="D88">
-        <v>0.004379779443459584</v>
+        <v>-0.02066729657492193</v>
       </c>
       <c r="E88">
-        <v>-0.02241471347933522</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.004947459662230889</v>
+      </c>
+      <c r="F88">
+        <v>-0.0004645233088413798</v>
+      </c>
+      <c r="G88">
+        <v>-0.0253410854149929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06190328551339049</v>
+        <v>-0.2140315064112113</v>
       </c>
       <c r="C89">
-        <v>-0.2651978980353244</v>
+        <v>-0.3742221827189616</v>
       </c>
       <c r="D89">
-        <v>0.1453610051320643</v>
+        <v>0.009440591798003039</v>
       </c>
       <c r="E89">
-        <v>0.3281932773585426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.009607028116034706</v>
+      </c>
+      <c r="F89">
+        <v>-0.03123177482643371</v>
+      </c>
+      <c r="G89">
+        <v>-0.0291907759684791</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.0442429965612924</v>
+        <v>-0.1780371803435608</v>
       </c>
       <c r="C90">
-        <v>-0.1680603202062916</v>
+        <v>-0.3391274780167489</v>
       </c>
       <c r="D90">
-        <v>0.1219967769149374</v>
+        <v>0.01189500950304874</v>
       </c>
       <c r="E90">
-        <v>0.2742009459611639</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007427199459185403</v>
+      </c>
+      <c r="F90">
+        <v>-0.04410522887632497</v>
+      </c>
+      <c r="G90">
+        <v>-0.004335849778052655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.003985395402391176</v>
+        <v>-0.2141111772679129</v>
       </c>
       <c r="C91">
-        <v>-0.2275254705903228</v>
+        <v>0.1312003166237921</v>
       </c>
       <c r="D91">
-        <v>-0.02282714295091693</v>
+        <v>0.02657141388139816</v>
       </c>
       <c r="E91">
-        <v>-0.205170452402216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08579299987315273</v>
+      </c>
+      <c r="F91">
+        <v>-0.1959907115800827</v>
+      </c>
+      <c r="G91">
+        <v>0.01158233016739147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0118120619123088</v>
+        <v>-0.2070278913353999</v>
       </c>
       <c r="C92">
-        <v>-0.3190828826861393</v>
+        <v>-0.2744980612781411</v>
       </c>
       <c r="D92">
-        <v>0.1107033777858033</v>
+        <v>0.05544106761795721</v>
       </c>
       <c r="E92">
-        <v>0.2349619637281318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003316042984316357</v>
+      </c>
+      <c r="F92">
+        <v>-0.1376718194685083</v>
+      </c>
+      <c r="G92">
+        <v>-0.06172680037048547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04705084389132485</v>
+        <v>-0.2023083744575851</v>
       </c>
       <c r="C93">
-        <v>-0.2408523787752516</v>
+        <v>-0.3347256936253892</v>
       </c>
       <c r="D93">
-        <v>0.1570700893629075</v>
+        <v>0.01881933502423153</v>
       </c>
       <c r="E93">
-        <v>0.3112295576578376</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01279356797595552</v>
+      </c>
+      <c r="F93">
+        <v>-0.01764567151578648</v>
+      </c>
+      <c r="G93">
+        <v>-0.0006139429122206978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02286200023913676</v>
+        <v>-0.2763342764178978</v>
       </c>
       <c r="C94">
-        <v>-0.2789212031075779</v>
+        <v>0.1477398935236284</v>
       </c>
       <c r="D94">
-        <v>0.01823419699151255</v>
+        <v>0.01444333329763519</v>
       </c>
       <c r="E94">
-        <v>-0.1959285131808899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.09749910863766599</v>
+      </c>
+      <c r="F94">
+        <v>-0.395332181336488</v>
+      </c>
+      <c r="G94">
+        <v>0.1225624846632391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006240943008159051</v>
+        <v>-0.08355640350937669</v>
       </c>
       <c r="C95">
-        <v>-0.08741368562111616</v>
+        <v>0.07488560046420002</v>
       </c>
       <c r="D95">
-        <v>0.06920087725566984</v>
+        <v>0.008420586439899479</v>
       </c>
       <c r="E95">
-        <v>-0.06758988058420382</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07810029997117897</v>
+      </c>
+      <c r="F95">
+        <v>0.1567087378489566</v>
+      </c>
+      <c r="G95">
+        <v>0.06751038416193046</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.007407906895048538</v>
+        <v>-0.2142387055168676</v>
       </c>
       <c r="C98">
-        <v>-0.2061222862819634</v>
+        <v>0.04515686007134913</v>
       </c>
       <c r="D98">
-        <v>0.03878690774615879</v>
+        <v>0.01871546482106834</v>
       </c>
       <c r="E98">
-        <v>-0.09026235737710411</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06495252178722206</v>
+      </c>
+      <c r="F98">
+        <v>0.2392484636528482</v>
+      </c>
+      <c r="G98">
+        <v>0.03669534519421408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009119268004353583</v>
+        <v>-0.01378516855480378</v>
       </c>
       <c r="C101">
-        <v>-0.02755478577289276</v>
+        <v>0.02055248754993798</v>
       </c>
       <c r="D101">
-        <v>-0.006779908092111711</v>
+        <v>-0.008312085667498552</v>
       </c>
       <c r="E101">
-        <v>-0.02258473329063577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03517093604758761</v>
+      </c>
+      <c r="F101">
+        <v>-0.02451726931156813</v>
+      </c>
+      <c r="G101">
+        <v>-0.03835421133690054</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01626658673923395</v>
+        <v>-0.1266756919923654</v>
       </c>
       <c r="C102">
-        <v>-0.120526112957433</v>
+        <v>0.07752470266444692</v>
       </c>
       <c r="D102">
-        <v>-0.009145463272264877</v>
+        <v>0.001359499854173097</v>
       </c>
       <c r="E102">
-        <v>-0.09643155648687979</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04364830985057522</v>
+      </c>
+      <c r="F102">
+        <v>-0.06513981436697075</v>
+      </c>
+      <c r="G102">
+        <v>0.01437070115451607</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002614464824582929</v>
+        <v>-0.005705570125391312</v>
       </c>
       <c r="C103">
-        <v>-0.02740170792781599</v>
+        <v>0.005491514298150267</v>
       </c>
       <c r="D103">
-        <v>-0.0183842386646338</v>
+        <v>-0.0002944087332269256</v>
       </c>
       <c r="E103">
-        <v>-0.02557763471291214</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001811921884574928</v>
+      </c>
+      <c r="F103">
+        <v>-0.009467594132363396</v>
+      </c>
+      <c r="G103">
+        <v>-0.01405362760807621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9837332712786291</v>
+        <v>-0.0431598714849603</v>
       </c>
       <c r="C104">
-        <v>0.1175986277263542</v>
+        <v>-0.04517634677083073</v>
       </c>
       <c r="D104">
-        <v>-0.02638456190375435</v>
+        <v>-0.9859420217707632</v>
       </c>
       <c r="E104">
-        <v>-0.02883656213937927</v>
+        <v>0.04385544547005295</v>
+      </c>
+      <c r="F104">
+        <v>-0.03767305536925049</v>
+      </c>
+      <c r="G104">
+        <v>0.001595750281615145</v>
       </c>
     </row>
   </sheetData>
